--- a/files/templates/smis _template.xlsx
+++ b/files/templates/smis _template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
@@ -13,6 +13,31 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Use this date format
+(YYYY-MM-DD)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,9 +76,6 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t>DATE OF BIRTH</t>
-  </si>
-  <si>
     <t>ADDRESS</t>
   </si>
   <si>
@@ -83,12 +105,15 @@
   <si>
     <t>1=form I, 2=form II,…</t>
   </si>
+  <si>
+    <t>DATE OF BIRTH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +144,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +575,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -561,7 +592,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
@@ -584,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -611,13 +642,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -670,22 +701,22 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2476,6 +2507,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
